--- a/base_results + alternative_1_results.xlsx
+++ b/base_results + alternative_1_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Диана\Documents\GitHub\econom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804DC25C-C917-4701-9619-827960F31A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C19186D-EEA5-4B6B-86F3-A75E41E521D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="808">
   <si>
     <t>==============================================================================</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Adj. R-squared:</t>
   </si>
   <si>
-    <t>0.209</t>
-  </si>
-  <si>
     <t>Method:</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>Sat, 17 Dec 2022</t>
-  </si>
-  <si>
     <t>Prob (F-statistic):</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>-----------</t>
   </si>
   <si>
-    <t>0.195</t>
-  </si>
-  <si>
     <t>0.017</t>
   </si>
   <si>
@@ -201,21 +192,12 @@
     <t>0.178</t>
   </si>
   <si>
-    <t>-0.136</t>
-  </si>
-  <si>
     <t>0.246</t>
   </si>
   <si>
-    <t>0.791</t>
-  </si>
-  <si>
     <t>-0.421</t>
   </si>
   <si>
-    <t>0.143</t>
-  </si>
-  <si>
     <t>-0.0879</t>
   </si>
   <si>
@@ -237,9 +219,6 @@
     <t>0.305</t>
   </si>
   <si>
-    <t>0.079</t>
-  </si>
-  <si>
     <t>-0.058</t>
   </si>
   <si>
@@ -249,9 +228,6 @@
     <t>-0.0003</t>
   </si>
   <si>
-    <t>0.043</t>
-  </si>
-  <si>
     <t>-0.001</t>
   </si>
   <si>
@@ -270,15 +246,9 @@
     <t>0.015</t>
   </si>
   <si>
-    <t>0.892</t>
-  </si>
-  <si>
     <t>1.544</t>
   </si>
   <si>
-    <t>0.098</t>
-  </si>
-  <si>
     <t>0.298</t>
   </si>
   <si>
@@ -288,9 +258,6 @@
     <t>0.031</t>
   </si>
   <si>
-    <t>БАЗОВАЯ МОДЕЛЬ С ЛОГАРИФМОМ</t>
-  </si>
-  <si>
     <t xml:space="preserve">                            OLS Regression Results                            </t>
   </si>
   <si>
@@ -1737,406 +1704,751 @@
     <t>0.449</t>
   </si>
   <si>
-    <t xml:space="preserve">OLS Regression Results                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">==============================================================================     </t>
-  </si>
-  <si>
-    <t>0.410</t>
-  </si>
-  <si>
-    <t>3.739</t>
-  </si>
-  <si>
-    <t>2.27e-07</t>
-  </si>
-  <si>
-    <t>-62.057</t>
-  </si>
-  <si>
-    <t>178.1</t>
-  </si>
-  <si>
-    <t>262.3</t>
-  </si>
-  <si>
-    <t>--------------</t>
-  </si>
-  <si>
-    <t>--------</t>
-  </si>
-  <si>
-    <t>10.1715</t>
-  </si>
-  <si>
-    <t>49.323</t>
-  </si>
-  <si>
-    <t>9.764</t>
-  </si>
-  <si>
-    <t>10.579</t>
-  </si>
-  <si>
-    <t>0.2985</t>
-  </si>
-  <si>
-    <t>1.738</t>
-  </si>
-  <si>
-    <t>0.084</t>
-  </si>
-  <si>
-    <t>-0.041</t>
-  </si>
-  <si>
-    <t>0.638</t>
-  </si>
-  <si>
-    <t>0.7552</t>
-  </si>
-  <si>
-    <t>3.610</t>
-  </si>
-  <si>
-    <t>0.342</t>
-  </si>
-  <si>
-    <t>1.169</t>
-  </si>
-  <si>
-    <t>0.6368</t>
-  </si>
-  <si>
-    <t>0.303</t>
-  </si>
-  <si>
-    <t>2.101</t>
-  </si>
-  <si>
-    <t>1.236</t>
-  </si>
-  <si>
-    <t>0.3818</t>
-  </si>
-  <si>
-    <t>0.931</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>-0.429</t>
-  </si>
-  <si>
-    <t>1.192</t>
-  </si>
-  <si>
-    <t>1.1655</t>
-  </si>
-  <si>
-    <t>2.832</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>1.979</t>
-  </si>
-  <si>
-    <t>0.5864</t>
-  </si>
-  <si>
-    <t>0.175</t>
-  </si>
-  <si>
-    <t>3.352</t>
-  </si>
-  <si>
-    <t>0.932</t>
-  </si>
-  <si>
-    <t>0.4916</t>
-  </si>
-  <si>
-    <t>3.247</t>
-  </si>
-  <si>
-    <t>0.0721</t>
-  </si>
-  <si>
-    <t>0.278</t>
-  </si>
-  <si>
-    <t>0.781</t>
-  </si>
-  <si>
-    <t>-0.441</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.4801</t>
-  </si>
-  <si>
-    <t>0.171</t>
-  </si>
-  <si>
-    <t>2.802</t>
-  </si>
-  <si>
-    <t>0.819</t>
-  </si>
-  <si>
-    <t>0.3741</t>
-  </si>
-  <si>
-    <t>1.606</t>
-  </si>
-  <si>
-    <t>-0.087</t>
-  </si>
-  <si>
-    <t>0.835</t>
-  </si>
-  <si>
-    <t>0.4357</t>
-  </si>
-  <si>
-    <t>0.180</t>
-  </si>
-  <si>
-    <t>2.418</t>
-  </si>
-  <si>
-    <t>0.792</t>
-  </si>
-  <si>
-    <t>-0.0263</t>
-  </si>
-  <si>
-    <t>-0.135</t>
-  </si>
-  <si>
     <t>-0.411</t>
   </si>
   <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.4082</t>
-  </si>
-  <si>
-    <t>2.860</t>
-  </si>
-  <si>
-    <t>0.126</t>
-  </si>
-  <si>
-    <t>0.690</t>
-  </si>
-  <si>
-    <t>0.3840</t>
-  </si>
-  <si>
-    <t>0.257</t>
-  </si>
-  <si>
-    <t>1.495</t>
-  </si>
-  <si>
-    <t>-0.124</t>
-  </si>
-  <si>
-    <t>0.3600</t>
-  </si>
-  <si>
-    <t>-0.237</t>
-  </si>
-  <si>
-    <t>0.957</t>
-  </si>
-  <si>
-    <t>0.2127</t>
-  </si>
-  <si>
-    <t>-0.103</t>
-  </si>
-  <si>
-    <t>0.8210</t>
-  </si>
-  <si>
-    <t>0.409</t>
-  </si>
-  <si>
-    <t>2.005</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t>1.630</t>
-  </si>
-  <si>
-    <t>0.4617</t>
-  </si>
-  <si>
-    <t>1.527</t>
-  </si>
-  <si>
-    <t>1.060</t>
-  </si>
-  <si>
-    <t>-0.1617</t>
-  </si>
-  <si>
-    <t>-0.627</t>
-  </si>
-  <si>
-    <t>0.532</t>
-  </si>
-  <si>
-    <t>-0.672</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.6249</t>
-  </si>
-  <si>
-    <t>2.076</t>
-  </si>
-  <si>
-    <t>-0.1099</t>
-  </si>
-  <si>
-    <t>-0.367</t>
-  </si>
-  <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>-0.702</t>
-  </si>
-  <si>
-    <t>0.482</t>
-  </si>
-  <si>
-    <t>-0.1822</t>
-  </si>
-  <si>
-    <t>-2.549</t>
-  </si>
-  <si>
-    <t>-0.324</t>
-  </si>
-  <si>
-    <t>0.0228</t>
-  </si>
-  <si>
-    <t>2.849</t>
-  </si>
-  <si>
-    <t>-2.135</t>
-  </si>
-  <si>
-    <t>-2.37e-05</t>
-  </si>
-  <si>
-    <t>0.1460</t>
-  </si>
-  <si>
-    <t>2.040</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>-0.0098</t>
-  </si>
-  <si>
-    <t>-2.353</t>
-  </si>
-  <si>
-    <t>-0.018</t>
-  </si>
-  <si>
-    <t>================</t>
-  </si>
-  <si>
-    <t>==========</t>
-  </si>
-  <si>
-    <t>===========</t>
-  </si>
-  <si>
-    <t>==============</t>
-  </si>
-  <si>
-    <t>========</t>
-  </si>
-  <si>
-    <t>============</t>
-  </si>
-  <si>
-    <t>=======</t>
-  </si>
-  <si>
-    <t>Omnibus:</t>
-  </si>
-  <si>
-    <t>4.646</t>
-  </si>
-  <si>
-    <t>Durbin-Wats</t>
-  </si>
-  <si>
-    <t>on:</t>
-  </si>
-  <si>
-    <t>0.763</t>
-  </si>
-  <si>
-    <t>Prob(Omnibus):</t>
-  </si>
-  <si>
-    <t>Jarque-Bera</t>
-  </si>
-  <si>
-    <t>(JB):</t>
-  </si>
-  <si>
-    <t>4.865</t>
-  </si>
-  <si>
-    <t>Skew:</t>
-  </si>
-  <si>
-    <t>-0.230</t>
-  </si>
-  <si>
-    <t>Prob(JB):</t>
-  </si>
-  <si>
-    <t>0.0878</t>
-  </si>
-  <si>
-    <t>Kurtosis:</t>
-  </si>
-  <si>
-    <t>3.698</t>
-  </si>
-  <si>
-    <t>Cond. No.</t>
-  </si>
-  <si>
-    <t>.95e+04</t>
+    <t>OLS Regression Results</t>
+  </si>
+  <si>
+    <t>Omnibus:                        5.526   Durbin-Watson:                   1.914</t>
+  </si>
+  <si>
+    <t>Prob(Omnibus):                  0.063   Jarque-Bera (JB):                5.210</t>
+  </si>
+  <si>
+    <t>Skew:                          -0.426   Prob(JB):                       0.0739</t>
+  </si>
+  <si>
+    <t>Kurtosis:                       3.163   Cond. No.                     1.95e+04</t>
+  </si>
+  <si>
+    <t>10.1889</t>
+  </si>
+  <si>
+    <t>56.974</t>
+  </si>
+  <si>
+    <t>9.835</t>
+  </si>
+  <si>
+    <t>10.543</t>
+  </si>
+  <si>
+    <t>0.3299</t>
+  </si>
+  <si>
+    <t>0.168</t>
+  </si>
+  <si>
+    <t>1.966</t>
+  </si>
+  <si>
+    <t>0.662</t>
+  </si>
+  <si>
+    <t>0.8257</t>
+  </si>
+  <si>
+    <t>0.204</t>
+  </si>
+  <si>
+    <t>4.055</t>
+  </si>
+  <si>
+    <t>0.423</t>
+  </si>
+  <si>
+    <t>1.228</t>
+  </si>
+  <si>
+    <t>0.7337</t>
+  </si>
+  <si>
+    <t>2.498</t>
+  </si>
+  <si>
+    <t>1.314</t>
+  </si>
+  <si>
+    <t>0.4621</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>1.166</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>1.245</t>
+  </si>
+  <si>
+    <t>0.397</t>
+  </si>
+  <si>
+    <t>3.212</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.490</t>
+  </si>
+  <si>
+    <t>2.059</t>
+  </si>
+  <si>
+    <t>0.5564</t>
+  </si>
+  <si>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t>3.222</t>
+  </si>
+  <si>
+    <t>0.898</t>
+  </si>
+  <si>
+    <t>0.5328</t>
+  </si>
+  <si>
+    <t>0.149</t>
+  </si>
+  <si>
+    <t>3.570</t>
+  </si>
+  <si>
+    <t>0.238</t>
+  </si>
+  <si>
+    <t>0.0410</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>0.873</t>
+  </si>
+  <si>
+    <t>-0.464</t>
+  </si>
+  <si>
+    <t>0.546</t>
+  </si>
+  <si>
+    <t>0.4277</t>
+  </si>
+  <si>
+    <t>2.512</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>0.091</t>
+  </si>
+  <si>
+    <t>0.764</t>
+  </si>
+  <si>
+    <t>0.2862</t>
+  </si>
+  <si>
+    <t>1.235</t>
+  </si>
+  <si>
+    <t>0.744</t>
+  </si>
+  <si>
+    <t>0.4121</t>
+  </si>
+  <si>
+    <t>2.310</t>
+  </si>
+  <si>
+    <t>0.765</t>
+  </si>
+  <si>
+    <t>-0.0302</t>
+  </si>
+  <si>
+    <t>-0.158</t>
+  </si>
+  <si>
+    <t>0.874</t>
+  </si>
+  <si>
+    <t>-0.408</t>
+  </si>
+  <si>
+    <t>0.347</t>
+  </si>
+  <si>
+    <t>0.4013</t>
+  </si>
+  <si>
+    <t>2.851</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.680</t>
+  </si>
+  <si>
+    <t>0.3868</t>
+  </si>
+  <si>
+    <t>1.550</t>
+  </si>
+  <si>
+    <t>0.880</t>
+  </si>
+  <si>
+    <t>0.4460</t>
+  </si>
+  <si>
+    <t>0.292</t>
+  </si>
+  <si>
+    <t>1.530</t>
+  </si>
+  <si>
+    <t>0.128</t>
+  </si>
+  <si>
+    <t>-0.130</t>
+  </si>
+  <si>
+    <t>1.023</t>
+  </si>
+  <si>
+    <t>0.1951</t>
+  </si>
+  <si>
+    <t>0.159</t>
+  </si>
+  <si>
+    <t>1.226</t>
+  </si>
+  <si>
+    <t>-0.120</t>
+  </si>
+  <si>
+    <t>0.510</t>
+  </si>
+  <si>
+    <t>0.9456</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>2.396</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>0.165</t>
+  </si>
+  <si>
+    <t>0.3136</t>
+  </si>
+  <si>
+    <t>1.054</t>
+  </si>
+  <si>
+    <t>-0.275</t>
+  </si>
+  <si>
+    <t>0.902</t>
+  </si>
+  <si>
+    <t>-0.1520</t>
+  </si>
+  <si>
+    <t>-0.606</t>
+  </si>
+  <si>
+    <t>-0.648</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.6876</t>
+  </si>
+  <si>
+    <t>2.357</t>
+  </si>
+  <si>
+    <t>1.264</t>
+  </si>
+  <si>
+    <t>-0.1202</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>-0.698</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>-0.1946</t>
+  </si>
+  <si>
+    <t>0.069</t>
+  </si>
+  <si>
+    <t>-2.816</t>
+  </si>
+  <si>
+    <t>0.0118</t>
+  </si>
+  <si>
+    <t>1.629</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>-1.844</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>1.96e-05</t>
+  </si>
+  <si>
+    <t>0.1235</t>
+  </si>
+  <si>
+    <t>1.786</t>
+  </si>
+  <si>
+    <t>-0.013</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>-0.2950</t>
+  </si>
+  <si>
+    <t>0.092</t>
+  </si>
+  <si>
+    <t>-3.217</t>
+  </si>
+  <si>
+    <t>-0.476</t>
+  </si>
+  <si>
+    <t>-0.114</t>
+  </si>
+  <si>
+    <t>БАЗОВАЯ МОДЕЛЬ С ЛОГАРИФМОМ И опытом</t>
+  </si>
+  <si>
+    <t>Omnibus:                        5.945   Durbin-Watson:                   1.990</t>
+  </si>
+  <si>
+    <t>Prob(Omnibus):                  0.051   Jarque-Bera (JB):                5.578</t>
+  </si>
+  <si>
+    <t>Skew:                          -0.433   Prob(JB):                       0.0615</t>
+  </si>
+  <si>
+    <t>Kurtosis:                       3.238   Cond. No.                     5.39e+04</t>
+  </si>
+  <si>
+    <t>0.435</t>
+  </si>
+  <si>
+    <t>0.329</t>
+  </si>
+  <si>
+    <t>4.109</t>
+  </si>
+  <si>
+    <t>Mon, 19 Dec 2022</t>
+  </si>
+  <si>
+    <t>2.73e-08</t>
+  </si>
+  <si>
+    <t>-55.122</t>
+  </si>
+  <si>
+    <t>164.2</t>
+  </si>
+  <si>
+    <t>248.3</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>28.397</t>
+  </si>
+  <si>
+    <t>9.276</t>
+  </si>
+  <si>
+    <t>10.664</t>
+  </si>
+  <si>
+    <t>0.2901</t>
+  </si>
+  <si>
+    <t>1.723</t>
+  </si>
+  <si>
+    <t>-0.043</t>
+  </si>
+  <si>
+    <t>0.623</t>
+  </si>
+  <si>
+    <t>0.8010</t>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>3.961</t>
+  </si>
+  <si>
+    <t>0.401</t>
+  </si>
+  <si>
+    <t>1.201</t>
+  </si>
+  <si>
+    <t>0.7215</t>
+  </si>
+  <si>
+    <t>0.291</t>
+  </si>
+  <si>
+    <t>2.482</t>
+  </si>
+  <si>
+    <t>1.296</t>
+  </si>
+  <si>
+    <t>0.4361</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>1.106</t>
+  </si>
+  <si>
+    <t>0.271</t>
+  </si>
+  <si>
+    <t>-0.344</t>
+  </si>
+  <si>
+    <t>1.216</t>
+  </si>
+  <si>
+    <t>3.197</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>2.041</t>
+  </si>
+  <si>
+    <t>0.5193</t>
+  </si>
+  <si>
+    <t>3.009</t>
+  </si>
+  <si>
+    <t>0.861</t>
+  </si>
+  <si>
+    <t>0.4883</t>
+  </si>
+  <si>
+    <t>3.266</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.0385</t>
+  </si>
+  <si>
+    <t>0.878</t>
+  </si>
+  <si>
+    <t>-0.457</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>0.3762</t>
+  </si>
+  <si>
+    <t>2.208</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>0.2671</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>1.165</t>
+  </si>
+  <si>
+    <t>-0.186</t>
+  </si>
+  <si>
+    <t>0.721</t>
+  </si>
+  <si>
+    <t>0.3891</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>2.200</t>
+  </si>
+  <si>
+    <t>0.739</t>
+  </si>
+  <si>
+    <t>-0.0645</t>
+  </si>
+  <si>
+    <t>-0.338</t>
+  </si>
+  <si>
+    <t>0.736</t>
+  </si>
+  <si>
+    <t>-0.442</t>
+  </si>
+  <si>
+    <t>0.313</t>
+  </si>
+  <si>
+    <t>0.3543</t>
+  </si>
+  <si>
+    <t>2.517</t>
+  </si>
+  <si>
+    <t>0.3464</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>1.395</t>
+  </si>
+  <si>
+    <t>-0.145</t>
+  </si>
+  <si>
+    <t>0.837</t>
+  </si>
+  <si>
+    <t>0.4111</t>
+  </si>
+  <si>
+    <t>0.290</t>
+  </si>
+  <si>
+    <t>1.415</t>
+  </si>
+  <si>
+    <t>-0.163</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>0.1842</t>
+  </si>
+  <si>
+    <t>1.171</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>0.8796</t>
+  </si>
+  <si>
+    <t>2.230</t>
+  </si>
+  <si>
+    <t>0.100</t>
+  </si>
+  <si>
+    <t>1.659</t>
+  </si>
+  <si>
+    <t>0.2167</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>-0.369</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>-0.1679</t>
+  </si>
+  <si>
+    <t>0.249</t>
+  </si>
+  <si>
+    <t>-0.674</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>-0.661</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.6243</t>
+  </si>
+  <si>
+    <t>2.141</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>-0.0804</t>
+  </si>
+  <si>
+    <t>-0.277</t>
+  </si>
+  <si>
+    <t>0.782</t>
+  </si>
+  <si>
+    <t>-0.654</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>-0.1886</t>
+  </si>
+  <si>
+    <t>-2.742</t>
+  </si>
+  <si>
+    <t>-0.325</t>
+  </si>
+  <si>
+    <t>-0.053</t>
+  </si>
+  <si>
+    <t>0.0186</t>
+  </si>
+  <si>
+    <t>1.332</t>
+  </si>
+  <si>
+    <t>-0.009</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t>I(age ** 2)</t>
+  </si>
+  <si>
+    <t>-0.0002</t>
+  </si>
+  <si>
+    <t>-1.617</t>
+  </si>
+  <si>
+    <t>5.36e-05</t>
+  </si>
+  <si>
+    <t>0.1535</t>
+  </si>
+  <si>
+    <t>2.293</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>-0.2953</t>
+  </si>
+  <si>
+    <t>-3.246</t>
+  </si>
+  <si>
+    <t>-0.475</t>
+  </si>
+  <si>
+    <t>-0.115</t>
+  </si>
+  <si>
+    <t>0.321</t>
+  </si>
+  <si>
+    <t>3.998</t>
+  </si>
+  <si>
+    <t>5.18e-08</t>
+  </si>
+  <si>
+    <t>-56.099</t>
+  </si>
+  <si>
+    <t>166.2</t>
+  </si>
+  <si>
+    <t>250.2</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2481,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2206,6 +2518,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2219,7 +2537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2235,8 +2553,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2519,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2534,23 +2855,23 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
-        <v>87</v>
+        <v>676</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>0</v>
@@ -2567,10 +2888,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>572</v>
+        <v>305</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -2584,125 +2905,125 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>513</v>
+        <v>802</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>573</v>
+        <v>803</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>574</v>
+        <v>804</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
-        <v>0.96228009259259262</v>
+        <v>0.47516203703703702</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>575</v>
+        <v>805</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>576</v>
+        <v>806</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>577</v>
+        <v>807</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1">
         <v>26</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -2728,10 +3049,10 @@
         <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>12</v>
@@ -2748,28 +3069,28 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>578</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>579</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -2777,22 +3098,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>172</v>
+        <v>468</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E16" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>1</v>
@@ -2801,406 +3122,406 @@
         <v>96700</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>136</v>
+        <v>570</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>586</v>
+        <v>571</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>587</v>
+        <v>265</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>574</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="E18" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>594</v>
+        <v>400</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>260</v>
+        <v>579</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>600</v>
+        <v>522</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="M20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="O20" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>602</v>
+        <v>147</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1.2743</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>587</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>588</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>144</v>
+        <v>593</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>588</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>463</v>
+        <v>596</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>144</v>
+        <v>597</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>347</v>
+        <v>598</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>60</v>
+        <v>335</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>210</v>
+        <v>321</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>618</v>
+        <v>326</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>22</v>
+        <v>605</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>606</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>286</v>
+        <v>607</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>21</v>
@@ -3209,535 +3530,535 @@
         <v>6</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>66</v>
+        <v>419</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>623</v>
+        <v>505</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>626</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>613</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>396</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>554</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>81</v>
+        <v>617</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>275</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="E29" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>638</v>
+        <v>272</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>424</v>
+        <v>622</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>640</v>
+        <v>202</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>81</v>
+        <v>626</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>322</v>
+        <v>628</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>185</v>
+        <v>630</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>221</v>
+        <v>634</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>497</v>
+        <v>635</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>225</v>
+        <v>637</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>649</v>
+        <v>640</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>641</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>651</v>
+        <v>482</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>6</v>
+        <v>400</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>58</v>
+        <v>645</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>518</v>
+        <v>454</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>657</v>
+        <v>603</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>253</v>
+        <v>628</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>405</v>
+        <v>652</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>535</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>271</v>
+        <v>60</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>448</v>
+        <v>653</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>513</v>
+        <v>628</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>664</v>
+        <v>559</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>655</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -3745,43 +4066,43 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>374</v>
+        <v>659</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>650</v>
+        <v>660</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>669</v>
+        <v>382</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>587</v>
+        <v>64</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -3789,43 +4110,43 @@
         <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>20</v>
+        <v>407</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>21</v>
+        <v>404</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>539</v>
+        <v>663</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -3833,43 +4154,43 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>420</v>
+        <v>664</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>665</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -3877,186 +4198,144 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>544</v>
+        <v>659</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>74</v>
+        <v>668</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>425</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>206</v>
+        <v>669</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>676</v>
+        <v>229</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>670</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>206</v>
+        <v>672</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>546</v>
+        <v>673</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>588</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>276</v>
+        <v>675</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>691</v>
+        <v>561</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>695</v>
+        <v>562</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>0</v>
@@ -4064,161 +4343,314 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>699</v>
+        <v>563</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>703</v>
+        <v>564</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B48" s="4"/>
       <c r="I48" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="I49" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I50" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C51" s="9"/>
+      <c r="A51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="52" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>682</v>
+      </c>
       <c r="L52" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>683</v>
+      </c>
       <c r="I53" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="I54" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.47784722222222226</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>686</v>
+      </c>
       <c r="I55" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="1">
+        <v>166</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>687</v>
+      </c>
       <c r="I56" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="1">
+        <v>139</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>688</v>
+      </c>
       <c r="I57" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="1">
+        <v>26</v>
+      </c>
       <c r="I58" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="I59" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="I60" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I61" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="A62" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I62" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2848772</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="I63" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
+      <c r="A64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>696</v>
+      </c>
       <c r="I64" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>701</v>
+      </c>
       <c r="I65" s="5"/>
       <c r="J65" s="1" t="s">
         <v>10</v>
@@ -4240,27 +4672,41 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="A66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>705</v>
+      </c>
       <c r="I66" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>17</v>
@@ -4270,714 +4716,1032 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="A67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>711</v>
+      </c>
       <c r="I67" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="1">
+        <v>258959</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N69" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="O69" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="I68" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="J68" s="1" t="s">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="K70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="N70" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="O70" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="O68" s="1" t="s">
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="I69" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J69" s="1" t="s">
+      <c r="K71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="N71" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N69" s="1" t="s">
+      <c r="O71" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="O69" s="1" t="s">
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="I70" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J70" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L70" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="I71" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="I72" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N72" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="I73" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J73" s="1" t="s">
+      <c r="N75" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L73" s="1" t="s">
+      <c r="O75" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="M73" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N73" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="O73" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="I74" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J74" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="M76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="K77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M74" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O74" s="1" t="s">
+      <c r="M77" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="I75" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="J75" s="1" t="s">
+      <c r="N77" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L75" s="1" t="s">
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="M75" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="I76" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="I77" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="I78" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="K78" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N78" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="I79" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="K79" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M79" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="O81" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="O79" s="1" t="s">
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="I80" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J80" s="1" t="s">
+      <c r="K82" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="L80" s="1" t="s">
+      <c r="M82" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N82" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="M80" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N80" s="1" t="s">
+      <c r="O82" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="O80" s="1" t="s">
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="I81" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J81" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="L83" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="N83" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="O83" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="O81" s="1" t="s">
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="I82" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="J82" s="1" t="s">
+      <c r="K84" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L82" s="1" t="s">
+      <c r="L84" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="M82" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N82" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="O82" s="1" t="s">
+      <c r="N84" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="I83" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J83" s="1" t="s">
+      <c r="O84" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="K85" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="L85" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="M85" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="N85" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="O85" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="O83" s="1" t="s">
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="I84" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J84" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="L86" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="M86" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="N86" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="O86" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="O84" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="I85" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J85" s="1" t="s">
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="K87" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="M85" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="N85" s="1" t="s">
+      <c r="N87" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="O85" s="1" t="s">
+      <c r="O87" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="I86" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J86" s="1" t="s">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="K88" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L88" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="M88" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="N88" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="N86" s="1" t="s">
+      <c r="O88" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="O86" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="I87" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="I88" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>396</v>
-      </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="A89" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>801</v>
+      </c>
       <c r="I89" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I90" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>2</v>
@@ -4986,310 +5750,232 @@
         <v>23</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="A91" s="1" t="s">
+        <v>677</v>
+      </c>
       <c r="I91" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="A92" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="I92" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J92" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="M94" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="L92" s="1" t="s">
+      <c r="N94" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O94" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="M92" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O92" s="1" t="s">
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I95" s="6" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="I93" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J93" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="L93" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="N93" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O93" s="1" t="s">
+      <c r="M95" s="7" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="I94" s="6" t="s">
+      <c r="N95" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="O95" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="K94" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="M94" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="I95" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="M95" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>428</v>
-      </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
       <c r="I96" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+    <row r="97" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I97" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I98" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I99" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I100" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I101" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
+    <row r="103" spans="9:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="L103" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I104" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I105" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I106" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I107" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I108" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I109" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I110" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I111" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I112" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I113" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I114" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I115" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="9:15" x14ac:dyDescent="0.35">
@@ -5315,19 +6001,19 @@
     </row>
     <row r="117" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I117" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N117" s="1" t="s">
         <v>17</v>
@@ -5341,505 +6027,505 @@
         <v>1</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I119" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I120" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="121" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I121" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I122" s="5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="123" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I123" s="5" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="124" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I124" s="5" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="125" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I125" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="126" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I126" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I127" s="5" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="128" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I128" s="5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I129" s="5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="130" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I130" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I131" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I132" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I133" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="134" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I134" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I135" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="136" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I136" s="5" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="137" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I137" s="5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I138" s="5" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="K138" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="L138" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="L138" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="M138" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I139" s="5" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.35">
@@ -5847,22 +6533,22 @@
         <v>5</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="141" spans="9:15" x14ac:dyDescent="0.35">
@@ -5870,13 +6556,13 @@
         <v>7</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="M141" s="1" t="s">
         <v>21</v>
@@ -5885,7 +6571,7 @@
         <v>22</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="142" spans="9:15" x14ac:dyDescent="0.35">
@@ -5893,22 +6579,22 @@
         <v>8</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="143" spans="9:15" x14ac:dyDescent="0.35">
@@ -5916,137 +6602,137 @@
         <v>9</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="144" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I144" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="145" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I145" s="8" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="M145" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="146" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I146" s="8" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="M146" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="147" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I147" s="8" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="M147" s="7" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="148" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I148" s="8" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="M148" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
     </row>
     <row r="149" spans="9:15" x14ac:dyDescent="0.35">
@@ -6056,22 +6742,22 @@
     </row>
     <row r="150" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I150" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="151" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I151" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="152" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I152" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153" spans="9:15" x14ac:dyDescent="0.35">
       <c r="I153" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="154" spans="9:15" x14ac:dyDescent="0.35">
